--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-75%.xlsx
@@ -76764,6 +76764,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.30666666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>435.1466666666666</v>
       </c>
@@ -76819,6 +76822,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.51566666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>442.7288888888889</v>
       </c>
@@ -76874,6 +76880,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.31083333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>453.0794444444445</v>
       </c>
@@ -76929,6 +76938,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.36683333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>436.135</v>
       </c>
@@ -76984,6 +76996,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.26466666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>428.8844444444445</v>
       </c>
@@ -77039,6 +77054,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.42766666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>439.6366666666667</v>
       </c>
@@ -77094,6 +77112,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.83233333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>423.135</v>
       </c>
@@ -77149,6 +77170,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.201</v>
+      </c>
       <c r="C9" t="n">
         <v>429.1127777777778</v>
       </c>
@@ -77204,6 +77228,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.704</v>
+      </c>
       <c r="C10" t="n">
         <v>458.4177777777777</v>
       </c>
@@ -77259,6 +77286,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.54266666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>428.3422222222222</v>
       </c>
@@ -77314,6 +77344,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.08033333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>414.475</v>
       </c>
@@ -77369,6 +77402,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.88733333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>459.4205555555556</v>
       </c>
@@ -77424,6 +77460,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.55233333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>426.9827777777778</v>
       </c>
@@ -77479,6 +77518,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>14.14716666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>473.4638888888888</v>
       </c>
@@ -77534,6 +77576,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.90333333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>450.5516666666667</v>
       </c>
@@ -77589,6 +77634,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.87233333333333</v>
+      </c>
       <c r="C17" t="n">
         <v>436.9172222222222</v>
       </c>
@@ -77644,6 +77692,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.2685</v>
+      </c>
       <c r="C18" t="n">
         <v>450.9972222222223</v>
       </c>
@@ -77699,6 +77750,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.08883333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>436.8466666666667</v>
       </c>
@@ -77754,6 +77808,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14.53766666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>452.6383333333334</v>
       </c>
@@ -77809,6 +77866,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.56666666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>452.6638888888889</v>
       </c>
@@ -77864,6 +77924,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>11.4935</v>
+      </c>
       <c r="C22" t="n">
         <v>412.1522222222222</v>
       </c>
@@ -77919,6 +77982,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.97933333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>435.9483333333334</v>
       </c>
@@ -77974,6 +78040,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.2405</v>
+      </c>
       <c r="C24" t="n">
         <v>432.2277777777778</v>
       </c>
@@ -78029,6 +78098,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>14.60733333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>455.7966666666666</v>
       </c>
@@ -78084,6 +78156,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.28083333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>430.1377777777777</v>
       </c>
@@ -78139,6 +78214,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.714</v>
+      </c>
       <c r="C27" t="n">
         <v>442.5277777777778</v>
       </c>
@@ -78194,6 +78272,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.90866666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>435.3577777777778</v>
       </c>
@@ -78249,6 +78330,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.199</v>
+      </c>
       <c r="C29" t="n">
         <v>432.2505555555556</v>
       </c>
@@ -78304,6 +78388,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.08883333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>427.9727777777778</v>
       </c>
@@ -78358,6 +78445,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.266</v>
       </c>
       <c r="C31" t="n">
         <v>460.02</v>
